--- a/学生成绩管理系统.xlsx
+++ b/学生成绩管理系统.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\XIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36116D32-C15D-4988-8F17-477C7A2A9A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10131A6-251A-4698-BA15-FD321C50923F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A488906F-8308-4786-A00F-5F87F4FDDF71}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
   <si>
     <t>学生成绩管理系统</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -485,7 +485,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DAL层：</t>
+    <t>DAL层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADO.NET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLConnection（数据库连接类）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLComand（数据库操作类）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作字符串（insert,select,update,delete）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,6 +618,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF76C84-9FDD-451F-8830-55763E26E2E6}">
   <dimension ref="B2:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1398,25 +1432,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99027E5-8B42-4788-BC13-7F3A3BB1C14F}">
-  <dimension ref="B3:C14"/>
+  <dimension ref="B3:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -1424,14 +1458,48 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>57</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/学生成绩管理系统.xlsx
+++ b/学生成绩管理系统.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\XIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10131A6-251A-4698-BA15-FD321C50923F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2175DE6F-3EC3-4E3E-BCEB-EF0CAA114817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A488906F-8308-4786-A00F-5F87F4FDDF71}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
   <si>
     <t>学生成绩管理系统</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -509,11 +509,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>连接字符串</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>操作字符串（insert,select,update,delete）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接字符串（服务器地址，数据库名称，数据库用户名，密码）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADO.NET（SQLHelper）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +607,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -624,6 +628,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1432,13 +1439,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99027E5-8B42-4788-BC13-7F3A3BB1C14F}">
-  <dimension ref="B3:F16"/>
+  <dimension ref="B3:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -1480,26 +1490,43 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="15" spans="2:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
